--- a/CRVS.xlsx
+++ b/CRVS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9F28E4-52FF-4CB3-A4DC-5B7F4D8B2C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD690FC-4EFB-4473-B23B-9117629C80E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50820" yWindow="780" windowWidth="26985" windowHeight="17820" xr2:uid="{ADAE5EC7-9196-433C-8B4F-1E8F4A6D3099}"/>
+    <workbookView xWindow="-24150" yWindow="360" windowWidth="23190" windowHeight="18840" activeTab="1" xr2:uid="{ADAE5EC7-9196-433C-8B4F-1E8F4A6D3099}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Price</t>
   </si>
@@ -135,20 +135,122 @@
     <t>CXCR2</t>
   </si>
   <si>
-    <t>interleukin 2 inducible T cell kinase</t>
-  </si>
-  <si>
     <t>Competition</t>
   </si>
   <si>
     <t>Aclaris, Principia</t>
+  </si>
+  <si>
+    <t>Phase 1 n=64 28-day atopic dermatitis</t>
+  </si>
+  <si>
+    <t>December 2024 results</t>
+  </si>
+  <si>
+    <t>Cohort 1: 100mg bid</t>
+  </si>
+  <si>
+    <t>Cohort 2: 200mg qd</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>514.7g/mol</t>
+  </si>
+  <si>
+    <t>LogP</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>HBD/HBA</t>
+  </si>
+  <si>
+    <t>1/7, 7 rotatable bonds</t>
+  </si>
+  <si>
+    <t>TPSA</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>IPO: 2016</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Cys442 covalent bond</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>2038 COM Compound 44, ITK: &lt;10nM, TKX: 100-1000nM, TKX/ITK: 117x, JAK3: n/a BTK: 100-1000nM</t>
+  </si>
+  <si>
+    <t>interleukin-2-inducible T cell kinase</t>
+  </si>
+  <si>
+    <t>T cell activation, differentiation, receptor signaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITK inhibition </t>
+  </si>
+  <si>
+    <t>ITK (interleukin-2 inducible T cell kinase) is expressed by T cells and is involved in both T cell receptor signaling and differentiation of naïve T cells into Th2 cells.</t>
+  </si>
+  <si>
+    <t>Inhibition of ITK preferentially reduces the synthesis of Th2-derived cytokines including IL-4, IL-5, and IL-13. CPI-818 is an oral, selective drug that binds covalently to ITK to inhibit its enzymatic function.</t>
+  </si>
+  <si>
+    <t>It is being evaluated in a single agent, dose-escalation phase 1 trial in patients with refractory T cell lymphoma and demonstrates anti- tumor activity along with evidence of reduction of Th2 cell differentiation and Th2 cytokine production.</t>
+  </si>
+  <si>
+    <t>We have evaluated CPI-818 in spontaneous canine AD (CAD) as a model for human disease.</t>
+  </si>
+  <si>
+    <t>Five dogs with recurrent, moderate to severe CAD were treated with CPI-818 at a dose of 10 to 20 mg/kg BID for up to 28 days.</t>
+  </si>
+  <si>
+    <t>Primary efficacy outcomes were the PVAS (pruritus visual analog scale) and CADLI (canine atopic dermatitis lesion index).</t>
+  </si>
+  <si>
+    <t>All dogs had improvement in the PVAS within 2 days of starting CPI-818.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Four dogs were evaluable for at least 14 days and showed improvement in PVAS (32 + 16%) (mean + SD). </t>
+  </si>
+  <si>
+    <t>Improvement on Day 28 in PVAS was 34 + 22%.</t>
+  </si>
+  <si>
+    <t>Three of 4 dogs had an improved CADLI on Day 14 and all had improved CADLI (20 + 10% )on Day 28.</t>
+  </si>
+  <si>
+    <t>One dog, whose PVAS on Day 9 had improved 45%, withdrew from study for suspected drug rash; no serious adverse events were encountered.</t>
+  </si>
+  <si>
+    <t>This CAD trial demonstrates that ITK inhibition may represent a novel approach to treatment of atopic diseases with the potential advantage of inhibiting the production of multiple Th2 cytokines.</t>
+  </si>
+  <si>
+    <t>Dog Study</t>
+  </si>
+  <si>
+    <t>Atopic dermatitis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Involves multiple Th2 derived cytokines (IL-4, IL-5, IL-13, IL-9, IL-10), but current therapies are limited by their activity on a subset of these cytokines.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -167,6 +269,11 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -278,14 +385,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -293,7 +399,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -301,15 +406,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -328,6 +432,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392437</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45119</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2B097F-5E90-22B9-C515-0C98714CD850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3991884" y="596565"/>
+          <a:ext cx="3322313" cy="3282214"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>812130</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>93971</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>36256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3DA1790-82A9-ED7E-BD74-86BA42E2F3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1148012" y="4246258"/>
+          <a:ext cx="2901341" cy="1565156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,35 +861,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB602D7-41FF-451F-A8EF-F355DB11C24C}">
-  <dimension ref="B2:L12"/>
+  <dimension ref="B2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="10"/>
       <c r="J2" t="s">
         <v>0</v>
       </c>
@@ -684,21 +897,21 @@
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="5"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="4"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
@@ -713,16 +926,16 @@
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="5"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="4"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
@@ -735,12 +948,10 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="5"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="4"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
@@ -756,14 +967,13 @@
       <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="4"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -775,13 +985,13 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="7"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
@@ -808,6 +1018,11 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -821,22 +1036,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DE88F6-9437-4973-96E1-BDD6D3D1DC25}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -844,43 +1062,208 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="11"/>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="11"/>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="13" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>26</v>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="18"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="19">
+        <f>3.63/5.7-1</f>
+        <v>-0.36315789473684212</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -888,5 +1271,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{15E2E848-30FA-4FC5-9661-440D2EC0DB37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>